--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2180,7 +2180,7 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,,(Citation: lookout_abstractemu_1021)</t>
@@ -2213,7 +2213,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
+    <t>,,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
+    <t>,,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2273,7 +2273,7 @@
     <t>,,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-DualToy)</t>
@@ -2306,13 +2306,13 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: proofpoint_flubot_0421),(Citation: Europol FluBot Jun2022),(Citation: bitdefender_flubot_0524)</t>
+    <t>,,(Citation: Europol FluBot Jun2022),(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
     <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2336,7 +2336,7 @@
     <t>,,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Palo Alto HenBox)</t>
@@ -2354,7 +2354,7 @@
     <t>,,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Judy)</t>
@@ -2363,7 +2363,7 @@
     <t>,,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: FirshSecureList LightSpy 2020),(Citation: Threatfabric LightSpy 2023),(Citation: Threatfabric LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2023),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: FirshSecureList LightSpy 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),,(Citation: SentinelLabs AridViper 2023),(Citation: sophos_android_apt_spyware),(Citation: Cyware APT-C-23 2020),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: threatpost AndroidSpyware 2020)</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),,(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware),(Citation: SentinelLabs AridViper 2023)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2468,7 +2468,7 @@
     <t>,,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout ViperRAT)</t>
@@ -2483,7 +2483,7 @@
     <t>(Citation: CrowdStrike-Android),,(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2492,7 +2492,7 @@
     <t>,,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2198,7 +2198,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp)</t>
+    <t>,,(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2213,7 +2213,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
+    <t>,,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
+    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2231,7 +2231,7 @@
     <t>,,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,,(Citation: SecureList BusyGasper)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2273,7 +2273,7 @@
     <t>,,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-DualToy)</t>
@@ -2312,10 +2312,10 @@
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: Europol FluBot Jun2022),(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout FrozenCell)</t>
@@ -2336,7 +2336,7 @@
     <t>,,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Palo Alto HenBox)</t>
@@ -2354,16 +2354,16 @@
     <t>,,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
-  </si>
-  <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2023),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: FirshSecureList LightSpy 2020)</t>
+    <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+  </si>
+  <si>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2023),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2372,7 +2372,7 @@
     <t>,,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout-NotCompatible)</t>
@@ -2390,10 +2390,10 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
-  </si>
-  <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),,(Citation: fb_arid_viper)</t>
+    <t>,,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),,(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware),(Citation: SentinelLabs AridViper 2023)</t>
+    <t>(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),,(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2492,7 +2492,7 @@
     <t>,,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2198,7 +2198,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps)</t>
+    <t>,,(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: blackberry_mobile_malware_apt_esp)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2213,7 +2213,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
+    <t>,,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2231,7 +2231,7 @@
     <t>,,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,,(Citation: SecureList BusyGasper)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2312,10 +2312,10 @@
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421),(Citation: Europol FluBot Jun2022)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout FrozenCell)</t>
@@ -2336,7 +2336,7 @@
     <t>,,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Palo Alto HenBox)</t>
@@ -2354,7 +2354,7 @@
     <t>,,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Judy)</t>
@@ -2363,7 +2363,7 @@
     <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2023),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2024)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: FirshSecureList LightSpy 2020),(Citation: Threatfabric LightSpy 2023),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Threatfabric LightSpy 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2390,10 +2390,10 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
+    <t>,,(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
+  </si>
+  <si>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),,(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),,(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023)</t>
+    <t>(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),,(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: Cyware APT-C-23 2020)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2492,7 +2492,7 @@
     <t>,,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2186,7 +2186,7 @@
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
+    <t>,,(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2306,13 +2306,13 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421),(Citation: Europol FluBot Jun2022)</t>
+    <t>,,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
   </si>
   <si>
     <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2336,7 +2336,7 @@
     <t>,,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Palo Alto HenBox)</t>
@@ -2363,7 +2363,7 @@
     <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: FirshSecureList LightSpy 2020),(Citation: Threatfabric LightSpy 2023),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Threatfabric LightSpy 2024)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2024),(Citation: Threatfabric LightSpy 2023),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2390,10 +2390,10 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus)</t>
-  </si>
-  <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),,(Citation: fb_arid_viper)</t>
+    <t>,,(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),,(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: Cyware APT-C-23 2020)</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),,(Citation: SentinelLabs AridViper 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2483,7 +2483,7 @@
     <t>(Citation: CrowdStrike-Android),,(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2492,7 +2492,7 @@
     <t>,,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2180,13 +2180,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2198,7 +2198,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: blackberry_mobile_malware_apt_esp)</t>
+    <t>,,(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2213,7 +2213,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122)</t>
+    <t>,,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2231,7 +2231,7 @@
     <t>,,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,,(Citation: SecureList BusyGasper)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2306,16 +2306,16 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,,(Citation: proofpoint_flubot_0421),(Citation: Europol FluBot Jun2022),(Citation: bitdefender_flubot_0524)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout FrozenCell)</t>
@@ -2336,7 +2336,7 @@
     <t>,,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Palo Alto HenBox)</t>
@@ -2354,7 +2354,7 @@
     <t>,,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Judy)</t>
@@ -2363,7 +2363,7 @@
     <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2024),(Citation: Threatfabric LightSpy 2023),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: MelikovBlackBerry LightSpy 2024),(Citation: FirshSecureList LightSpy 2020),(Citation: Threatfabric LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2023)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2390,7 +2390,7 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
+    <t>,,(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),,(Citation: SentinelLabs AridViper 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23)</t>
+    <t>(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),,(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: SentinelLabs AridViper 2023),(Citation: Cyware APT-C-23 2020),(Citation: welivesecurity_apt-c-23)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
+    <t>,,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2468,7 +2468,7 @@
     <t>,,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout ViperRAT)</t>
@@ -2483,7 +2483,7 @@
     <t>(Citation: CrowdStrike-Android),,(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-XLoader-FakeSpy)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2186,7 +2186,7 @@
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2198,7 +2198,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter)</t>
+    <t>,,(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2213,7 +2213,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122)</t>
+    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2273,7 +2273,7 @@
     <t>,,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-DualToy)</t>
@@ -2306,13 +2306,13 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: proofpoint_flubot_0421),(Citation: Europol FluBot Jun2022),(Citation: bitdefender_flubot_0524)</t>
+    <t>,,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
   </si>
   <si>
     <t>,,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
@@ -2336,7 +2336,7 @@
     <t>,,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Palo Alto HenBox)</t>
@@ -2363,7 +2363,7 @@
     <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: MelikovBlackBerry LightSpy 2024),(Citation: FirshSecureList LightSpy 2020),(Citation: Threatfabric LightSpy 2024),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2023)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2023),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2024),(Citation: FirshSecureList LightSpy 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2390,7 +2390,7 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
+    <t>,,(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: CitizenLab Great iPwn)</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),,(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: SentinelLabs AridViper 2023),(Citation: Cyware APT-C-23 2020),(Citation: welivesecurity_apt-c-23)</t>
+    <t>(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),,(Citation: checkpoint_hamas_android_malware),(Citation: threatpost AndroidSpyware 2020),(Citation: welivesecurity_apt-c-23),(Citation: Cyware APT-C-23 2020),(Citation: SentinelLabs AridViper 2023),(Citation: sophos_android_apt_spyware)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2180,13 +2180,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2198,7 +2198,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp)</t>
+    <t>,,(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2213,7 +2213,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Zimperium z9),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis)</t>
+    <t>,,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
+    <t>,,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2231,7 +2231,7 @@
     <t>,,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,,(Citation: SecureList BusyGasper)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2306,16 +2306,16 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,,(Citation: Europol FluBot Jun2022),(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout FrozenCell)</t>
@@ -2354,7 +2354,7 @@
     <t>,,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Judy)</t>
@@ -2363,7 +2363,7 @@
     <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2023),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2024),(Citation: FirshSecureList LightSpy 2020)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2023),(Citation: Threatfabric LightSpy 2024),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2372,7 +2372,7 @@
     <t>,,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout-NotCompatible)</t>
@@ -2390,10 +2390,10 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: CitizenLab Great iPwn)</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
+    <t>,,(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
+  </si>
+  <si>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),,(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),,(Citation: checkpoint_hamas_android_malware),(Citation: threatpost AndroidSpyware 2020),(Citation: welivesecurity_apt-c-23),(Citation: Cyware APT-C-23 2020),(Citation: SentinelLabs AridViper 2023),(Citation: sophos_android_apt_spyware)</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),,(Citation: checkpoint_hamas_android_malware),(Citation: SentinelLabs AridViper 2023),(Citation: welivesecurity_apt-c-23),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
+    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2186,7 +2186,7 @@
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
+    <t>,,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2231,7 +2231,7 @@
     <t>,,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,,(Citation: SecureList BusyGasper)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,,(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2306,7 +2306,7 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
@@ -2354,16 +2354,16 @@
     <t>,,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
-  </si>
-  <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2023),(Citation: Threatfabric LightSpy 2024),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020),(Citation: MelikovBlackBerry LightSpy 2024)</t>
+    <t>,,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+  </si>
+  <si>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2023),(Citation: FirshSecureList LightSpy 2020),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_apt-c-23),(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),,(Citation: checkpoint_hamas_android_malware),(Citation: SentinelLabs AridViper 2023),(Citation: welivesecurity_apt-c-23),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware)</t>
+    <t>(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),,(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2468,7 +2468,7 @@
     <t>,,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout ViperRAT)</t>
@@ -2492,7 +2492,7 @@
     <t>,,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2180,13 +2180,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2198,7 +2198,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter)</t>
+    <t>,,(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2213,7 +2213,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
+    <t>,,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
+    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2273,7 +2273,7 @@
     <t>,,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-DualToy)</t>
@@ -2306,13 +2306,13 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: Europol FluBot Jun2022),(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+    <t>,,(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
     <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2336,7 +2336,7 @@
     <t>,,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Palo Alto HenBox)</t>
@@ -2360,10 +2360,10 @@
     <t>,,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
-  </si>
-  <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2023),(Citation: FirshSecureList LightSpy 2020),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2024)</t>
+    <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+  </si>
+  <si>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2024),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2023),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2372,7 +2372,7 @@
     <t>,,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout-NotCompatible)</t>
@@ -2390,10 +2390,10 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: Lookout-Pegasus),(Citation: CitizenLab Great iPwn)</t>
-  </si>
-  <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),,(Citation: fb_arid_viper)</t>
+    <t>,,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),,(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020)</t>
+    <t>(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),,(Citation: welivesecurity_apt-c-23),(Citation: threatpost AndroidSpyware 2020),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: sophos_android_apt_spyware),(Citation: SentinelLabs AridViper 2023)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019)</t>
+    <t>,,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2468,7 +2468,7 @@
     <t>,,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout ViperRAT)</t>
@@ -2483,7 +2483,7 @@
     <t>(Citation: CrowdStrike-Android),,(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-XLoader-FakeSpy)</t>

--- a/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
+++ b/docs/mobile-attack-v17.1/mobile-attack-v17.1-software.xlsx
@@ -2186,7 +2186,7 @@
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2222,7 +2222,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
+    <t>,,(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2243,7 +2243,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,,(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: cyble_chameleon_0423)</t>
@@ -2306,13 +2306,13 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022),(Citation: proofpoint_flubot_0421)</t>
+    <t>,,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
   </si>
   <si>
     <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2354,7 +2354,7 @@
     <t>,,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Judy)</t>
@@ -2363,7 +2363,7 @@
     <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2024),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2023),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: FirshSecureList LightSpy 2020)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Threatfabric LightSpy 2023),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: FirshSecureList LightSpy 2020),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: Threatfabric LightSpy 2024)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2390,7 +2390,7 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
+    <t>,,(Citation: CitizenLab Great iPwn),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: Lookout-Pegasus)</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
@@ -2414,7 +2414,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2429,7 +2429,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),,(Citation: welivesecurity_apt-c-23),(Citation: threatpost AndroidSpyware 2020),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: sophos_android_apt_spyware),(Citation: SentinelLabs AridViper 2023)</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),,(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: Cyware APT-C-23 2020),(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: SentinelLabs AridViper 2023)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2453,7 +2453,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019)</t>
+    <t>,,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2492,7 +2492,7 @@
     <t>,,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,,(Citation: paloalto_yispecter_1015)</t>
